--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_General.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.448108210259365</v>
+        <v>1.14725446361153</v>
       </c>
       <c r="D2">
-        <v>0.1476490053921895</v>
+        <v>0.2592856585496741</v>
       </c>
       <c r="E2">
         <v>8.337989927244132</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.666027392728763</v>
+        <v>0.4060421473599262</v>
       </c>
       <c r="D3">
-        <v>0.505424079879341</v>
+        <v>0.6872559169804111</v>
       </c>
       <c r="E3">
         <v>8.337989927244132</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.979509689005988</v>
+        <v>1.538821615351736</v>
       </c>
       <c r="D4">
-        <v>0.04781298448218507</v>
+        <v>0.1331037356110538</v>
       </c>
       <c r="E4">
         <v>8.337989927244132</v>
@@ -505,7 +502,7 @@
         <v>6.948438345538191</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.02208124461420992</v>
+        <v>0.0171273209410233</v>
       </c>
       <c r="D5">
-        <v>0.982384021746382</v>
+        <v>0.98643515741041</v>
       </c>
       <c r="E5">
         <v>8.337989927244132</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.9448382332259764</v>
+        <v>-1.120432360801508</v>
       </c>
       <c r="D6">
-        <v>0.3447867702300162</v>
+        <v>0.2703817234616073</v>
       </c>
       <c r="E6">
         <v>7.233131630043013</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.4259009282678681</v>
+        <v>0.4666371027944691</v>
       </c>
       <c r="D7">
-        <v>0.6701982286695891</v>
+        <v>0.6437358818395951</v>
       </c>
       <c r="E7">
         <v>7.233131630043013</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.38143920008777</v>
+        <v>-1.500201011762955</v>
       </c>
       <c r="D8">
-        <v>0.1672052088686062</v>
+        <v>0.1427920965003817</v>
       </c>
       <c r="E8">
         <v>7.233131630043013</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.528510724425554</v>
+        <v>1.377221673351219</v>
       </c>
       <c r="D9">
-        <v>0.1264485494814762</v>
+        <v>0.1774437468296994</v>
       </c>
       <c r="E9">
         <v>7.942634044917386</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.5186442862037015</v>
+        <v>-0.6921621030769461</v>
       </c>
       <c r="D10">
-        <v>0.6040315941878736</v>
+        <v>0.4935358373528718</v>
       </c>
       <c r="E10">
         <v>7.942634044917386</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.753234373374734</v>
+        <v>-1.436415213468986</v>
       </c>
       <c r="D11">
-        <v>0.07962258557111457</v>
+        <v>0.1600225433442253</v>
       </c>
       <c r="E11">
         <v>6.948438345538191</v>
